--- a/xlsx/Essjay事件_intext.xlsx
+++ b/xlsx/Essjay事件_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-Essjay controversy</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Essjay事件</t>
+    <t>政策_政策_维基百科_Essjay事件</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/User:Essjay</t>
@@ -41,25 +41,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>英文維基百科</t>
+    <t>英文维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%AE%A2</t>
   </si>
   <si>
-    <t>紐約客</t>
+    <t>纽约客</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E5%A3%AB</t>
   </si>
   <si>
-    <t>吉米·威爾士</t>
+    <t>吉米·威尔士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對維基百科的批評</t>
+    <t>对维基百科的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -125,25 +125,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>維基</t>
+    <t>维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%B6%89%E5%8F%8A%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81%E7%9A%84%E7%B7%A8%E8%BC%AF</t>
   </si>
   <si>
-    <t>對維基百科涉及利益衝突的編輯</t>
+    <t>对维基百科涉及利益冲突的编辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E5%88%AA%E9%99%A4%E4%B8%BB%E7%BE%A9%E5%92%8C%E4%BF%9D%E7%95%99%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>維基百科的刪除主義和保留主義</t>
+    <t>维基百科的删除主义和保留主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%80%A7%E5%88%A5%E5%81%8F%E8%AA%A4</t>
   </si>
   <si>
-    <t>維基百科的性別偏誤</t>
+    <t>维基百科的性别偏误</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Racial_bias_on_Wikipedia</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B2%E8%A3%81%E5%A7%94%E5%93%A1%E6%9C%83_(%E8%8B%B1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91)</t>
   </si>
   <si>
-    <t>仲裁委員會 (英語維基百科)</t>
+    <t>仲裁委员会 (英语维基百科)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E8%BE%91%E6%9D%BE</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%84%9B%E5%8F%A4%E8%B9%9F</t>
   </si>
   <si>
-    <t>維基愛古蹟</t>
+    <t>维基爱古蹟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Art%2BFeminism</t>
@@ -239,19 +239,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E8%82%B2%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基教育基金會</t>
+    <t>维基教育基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>維基媒體運動</t>
+    <t>维基媒体运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
+    <t>维基媒体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%88%86%E4%BC%9A%E5%88%97%E8%A1%A8</t>
@@ -263,49 +263,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>德國維基媒體協會</t>
+    <t>德国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>法國維基媒體協會</t>
+    <t>法国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>義大利維基媒體協會</t>
+    <t>义大利维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>荷蘭維基媒體協會</t>
+    <t>荷兰维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>波蘭維基媒體協會</t>
+    <t>波兰维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>中華民國維基媒體協會</t>
+    <t>中华民国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>香港維基媒體協會</t>
+    <t>香港维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>澳門維基媒體協會</t>
+    <t>澳门维基媒体协会</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/Amical_Wikimedia</t>
@@ -323,55 +323,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>元維基</t>
+    <t>元维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
   </si>
   <si>
-    <t>維基數據</t>
+    <t>维基数据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>維基共享資源</t>
+    <t>维基共享资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>維基新聞</t>
+    <t>维基新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
   </si>
   <si>
-    <t>維基語錄</t>
+    <t>维基语录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>維基物種</t>
+    <t>维基物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AD%A6%E9%99%A2</t>
@@ -383,25 +383,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維基媒體國際會議</t>
+    <t>维基媒体国际会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E5%B9%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>中文維基年會</t>
+    <t>中文维基年会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E6%9C%97%E7%B5%B2%C2%B7%E5%BE%B7%E4%BC%8D%E9%98%BF%E7%88%BE</t>
   </si>
   <si>
-    <t>弗洛朗絲·德伍阿爾</t>
+    <t>弗洛朗丝·德伍阿尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oscar_van_Dillen</t>
@@ -413,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%C2%B7%E5%8A%A0%E5%BE%B7%E7%B4%8D</t>
   </si>
   <si>
-    <t>蘇·加德納</t>
+    <t>苏·加德纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E6%B5%B7%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>詹姆斯·海爾曼</t>
+    <t>詹姆斯·海尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E7%91%9F%E7%90%B3%C2%B7%E9%A9%AC%E8%B5%AB</t>
@@ -455,25 +455,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>吉米·威爾斯</t>
+    <t>吉米·威尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%90%89%E6%8B%89%C2%B7%E8%B2%9D%E7%B5%B2%E8%95%BE%C2%B7%E6%96%AF%E5%A1%94%E6%9E%97</t>
   </si>
   <si>
-    <t>安吉拉·貝絲蕾·斯塔林</t>
+    <t>安吉拉·贝丝蕾·斯塔林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E6%98%AD</t>
   </si>
   <si>
-    <t>時昭</t>
+    <t>时昭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E7%91%9C%E7%9C%9F</t>
   </si>
   <si>
-    <t>許瑜真</t>
+    <t>许瑜真</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E9%9C%86_(%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93)</t>
@@ -485,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%90%98%E9%8A%98</t>
   </si>
   <si>
-    <t>王鐘銘</t>
+    <t>王钟铭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E7%A9%8E_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
-    <t>陳穎 (作家)</t>
+    <t>陈颖 (作家)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E6%96%AF%E6%B1%80%C2%B7%E7%BA%B3%E6%99%AE</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%A7%86%C2%B7%E8%AC%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>提姆·謝爾</t>
+    <t>提姆·谢尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E6%96%AF%E8%AB%BE</t>
   </si>
   <si>
-    <t>麥可·斯諾</t>
+    <t>麦可·斯诺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mike_Godwin</t>
@@ -527,25 +527,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%88%BE%C2%B7%E5%93%88%E7%88%BE%E5%A1%94%E6%AF%94%E7%88%BE</t>
   </si>
   <si>
-    <t>巴塞爾·哈爾塔比爾</t>
+    <t>巴塞尔·哈尔塔比尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%88%E5%AE%89%E6%B2%BB</t>
   </si>
   <si>
-    <t>酈安治</t>
+    <t>郦安治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%BA%B7%E7%91%9E</t>
   </si>
   <si>
-    <t>麥康瑞</t>
+    <t>麦康瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E6%99%AE%E7%88%BE%E8%A5%BF%E6%96%90</t>
   </si>
   <si>
-    <t>西蒙·普爾西斐</t>
+    <t>西蒙·普尔西斐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%A6%C2%B7%E6%96%AF%E6%B2%83%E8%8C%A8</t>
@@ -557,19 +557,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%9C%8D%E7%88%BE%C2%B7%E6%9F%AF%E6%96%AF%E7%99%BB%E6%9F%AF</t>
   </si>
   <si>
-    <t>伊霍爾·柯斯登柯</t>
+    <t>伊霍尔·柯斯登柯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E9%B3%B3</t>
   </si>
   <si>
-    <t>唐鳳</t>
+    <t>唐凤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%89%B9%C2%B7%E6%B2%83%E7%88%BE%E4%BB%80</t>
   </si>
   <si>
-    <t>加特·沃爾什</t>
+    <t>加特·沃尔什</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%B1%B3%C2%B7%E9%A9%AC%E8%92%82%E6%96%AF</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>維基百科歷史</t>
+    <t>维基百科历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Bomis</t>
@@ -647,19 +647,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>維基百科標誌</t>
+    <t>维基百科标志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>義大利語維基百科</t>
+    <t>义大利语维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8DSOPA%E5%92%8CPIPA%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>反SOPA和PIPA抗議</t>
+    <t>反SOPA和PIPA抗议</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/Pemadaman_Wikipedia_bahasa_Inggris</t>
@@ -677,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE%E6%95%8D%E5%A5%A7%E7%89%B9%E8%BB%8D%E7%94%A8%E7%84%A1%E7%B7%9A%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>皮埃爾敍奧特軍用無線電台</t>
+    <t>皮埃尔敍奥特军用无线电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E4%B9%9F%E7%94%B3%E9%81%BA</t>
   </si>
   <si>
-    <t>維基百科也申遺</t>
+    <t>维基百科也申遗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1Lib1Ref</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9F%A5%E8%AD%98%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>維基百科知識引擎</t>
+    <t>维基百科知识引擎</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Litigation_involving_the_Wikimedia_Foundation</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83%E6%8E%A7%E5%91%8A%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80%E6%A1%88</t>
   </si>
   <si>
-    <t>維基媒體基金會控告美國國家安全局案</t>
+    <t>维基媒体基金会控告美国国家安全局案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Wikipedia_controversies</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%9C%8B%E5%AE%B6%E6%9D%9C%E9%A6%AC89417-6%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>俄羅斯國家杜馬89417-6法案</t>
+    <t>俄罗斯国家杜马89417-6法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E5%9C%9F%E8%80%B3%E5%85%B6%E5%B0%81%E9%94%81%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91%E4%BA%8B%E4%BB%B6</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E6%A1%86</t>
   </si>
   <si>
-    <t>資訊框</t>
+    <t>资讯框</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wikiwand</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F</t>
   </si>
   <si>
-    <t>維基百科應用程式</t>
+    <t>维基百科应用程式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/QRpedia</t>
@@ -905,13 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%A0%A1%E5%9C%92%E7%89%88</t>
   </si>
   <si>
-    <t>維基百科校園版</t>
+    <t>维基百科校园版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%8E%83%E6%8F%8F%E5%99%A8</t>
   </si>
   <si>
-    <t>維基掃描器</t>
+    <t>维基扫描器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quadriga_(award)</t>
@@ -965,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%9C%89%E9%97%9C%E7%9A%84%E9%9B%BB%E5%BD%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>和維基百科有關的電影列表</t>
+    <t>和维基百科有关的电影列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Academic_studies_about_Wikipedia</t>
@@ -1055,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>偽基百科</t>
+    <t>伪基百科</t>
   </si>
   <si>
     <t>https://it.wikipedia.org/wiki/Nonciclopedia</t>
@@ -1103,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E7%B6%B2%E7%AB%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>Wiki網站列表</t>
+    <t>Wiki网站列表</t>
   </si>
 </sst>
 </file>
